--- a/StructureDefinition-profile-SupplyDelivery.xlsx
+++ b/StructureDefinition-profile-SupplyDelivery.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8079906-06:00</t>
+    <t>2026-02-09T22:05:43.3699667-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -651,6 +651,12 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>SupplyDelivery.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.type|0.0.1-snapshot-3}
 </t>
   </si>
@@ -661,6 +667,9 @@
     <t>Indicates the type of supply being provided.  Examples include: Medication, Device, Biologically Derived Product.</t>
   </si>
   <si>
+    <t>Element `SupplyDelivery.type` is mapped to FHIR R4 element `SupplyDelivery.type`.</t>
+  </si>
+  <si>
     <t>SupplyDelivery.type.coding</t>
   </si>
   <si>
@@ -735,6 +744,12 @@
     <t>SupplyDelivery.suppliedItem.extension</t>
   </si>
   <si>
+    <t>SupplyDelivery.suppliedItem.extension:item</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem.item|0.0.1-snapshot-3}
 </t>
   </si>
@@ -745,10 +760,33 @@
     <t>Identifies the medication, substance, device or biologically derived product being supplied. This is either a link to a resource representing the details of the item or a code that identifies the item from a known list.</t>
   </si>
   <si>
+    <t>Note that the target element context `SupplyDelivery.suppliedItem.item[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `SupplyDelivery.suppliedItem`.
+Element `SupplyDelivery.suppliedItem.item[x]` is mapped to FHIR R4 element `SupplyDelivery.suppliedItem.item[x]`.
+Note that the target element context `SupplyDelivery.suppliedItem.item[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `SupplyDelivery.suppliedItem`.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>SupplyDelivery.suppliedItem.extension:itemCanonical</t>
+  </si>
+  <si>
+    <t>itemCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/InventoryItem,http://hl7.org/fhir/StructureDefinition/NutritionProduct in FHIR R4</t>
+  </si>
+  <si>
+    <t>SupplyDelivery.suppliedItem.extension:itemReference</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/InventoryItem,http://hl7.org/fhir/StructureDefinition/NutritionProduct in FHIR R4</t>
+  </si>
+  <si>
     <t>SupplyDelivery.suppliedItem.modifierExtension</t>
   </si>
   <si>
@@ -886,14 +924,24 @@
     <t>SupplyDelivery.receiver.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.receiver|0.0.1-snapshot-3}
+    <t>SupplyDelivery.receiver.extension:receiver</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for SupplyDelivery.receiver from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Identifies the individual or organization that received the delivery.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyDelivery.receiver` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `SupplyDelivery.receiver` is mapped to FHIR R4 element `SupplyDelivery.receiver`.</t>
   </si>
   <si>
     <t>SupplyDelivery.receiver.reference</t>
@@ -1280,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1289,9 +1337,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.76171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -3283,7 +3331,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3384,12 +3432,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3410,15 +3460,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3496,10 +3548,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3522,19 +3574,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3583,7 +3635,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3601,10 +3653,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3612,10 +3664,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3641,16 +3693,16 @@
         <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3699,7 +3751,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3717,10 +3769,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3728,10 +3780,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3754,13 +3806,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3811,7 +3863,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3829,7 +3881,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3840,10 +3892,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3952,10 +4004,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3963,7 +4015,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4062,12 +4114,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4088,15 +4142,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4154,7 +4210,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>138</v>
@@ -4174,46 +4230,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4261,7 +4317,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4270,7 +4326,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4279,7 +4335,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4290,12 +4346,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4316,15 +4374,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4373,25 +4433,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4402,42 +4462,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4461,49 +4525,49 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4537,7 +4601,7 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>253</v>
@@ -4548,9 +4612,7 @@
       <c r="M29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4614,24 +4676,24 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4654,13 +4716,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4687,13 +4749,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4711,7 +4773,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4726,10 +4788,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4740,10 +4802,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4763,18 +4825,20 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4823,7 +4887,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4838,24 +4902,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4866,7 +4930,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4878,13 +4942,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4935,13 +4999,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -4950,10 +5014,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4964,10 +5028,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4990,13 +5054,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5047,7 +5111,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5059,13 +5123,13 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5076,10 +5140,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5087,7 +5151,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5102,13 +5166,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5147,19 +5211,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5171,13 +5235,13 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5188,10 +5252,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5202,7 +5266,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5214,13 +5278,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5271,25 +5335,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5300,10 +5364,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5314,7 +5378,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5323,20 +5387,18 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5373,37 +5435,37 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5414,12 +5476,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5437,19 +5501,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5475,13 +5539,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5499,25 +5563,25 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5528,10 +5592,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5554,16 +5618,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5613,7 +5677,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5622,7 +5686,7 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
@@ -5631,7 +5695,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5642,10 +5706,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5668,16 +5732,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5703,13 +5767,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5727,7 +5791,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5751,6 +5815,234 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SupplyDelivery.xlsx
+++ b/StructureDefinition-profile-SupplyDelivery.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3699667-06:00</t>
+    <t>2026-02-17T14:42:26.9295004-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -667,7 +667,7 @@
     <t>Indicates the type of supply being provided.  Examples include: Medication, Device, Biologically Derived Product.</t>
   </si>
   <si>
-    <t>Element `SupplyDelivery.type` is mapped to FHIR R4 element `SupplyDelivery.type`.</t>
+    <t>Element `SupplyDelivery.type` has is mapped to FHIR R4 element `SupplyDelivery.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>SupplyDelivery.type.coding</t>
@@ -744,49 +744,26 @@
     <t>SupplyDelivery.suppliedItem.extension</t>
   </si>
   <si>
-    <t>SupplyDelivery.suppliedItem.extension:item</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem.item|0.0.1-snapshot-3}
+    <t>SupplyDelivery.suppliedItem.extension:suppliedItem</t>
+  </si>
+  <si>
+    <t>suppliedItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SupplyDelivery.suppliedItem.item[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifies the medication, substance, device or biologically derived product being supplied. This is either a link to a resource representing the details of the item or a code that identifies the item from a known list.</t>
-  </si>
-  <si>
-    <t>Note that the target element context `SupplyDelivery.suppliedItem.item[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `SupplyDelivery.suppliedItem`.
-Element `SupplyDelivery.suppliedItem.item[x]` is mapped to FHIR R4 element `SupplyDelivery.suppliedItem.item[x]`.
-Note that the target element context `SupplyDelivery.suppliedItem.item[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `SupplyDelivery.suppliedItem`.</t>
+    <t>Cross-version extension for SupplyDelivery.suppliedItem from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `SupplyDelivery.suppliedItem` has is mapped to FHIR R4 element `SupplyDelivery.suppliedItem`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>SupplyDelivery.suppliedItem.extension:itemCanonical</t>
-  </si>
-  <si>
-    <t>itemCanonical</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/InventoryItem,http://hl7.org/fhir/StructureDefinition/NutritionProduct in FHIR R4</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.suppliedItem.extension:itemReference</t>
-  </si>
-  <si>
-    <t>itemReference</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/InventoryItem,http://hl7.org/fhir/StructureDefinition/NutritionProduct in FHIR R4</t>
-  </si>
-  <si>
     <t>SupplyDelivery.suppliedItem.modifierExtension</t>
   </si>
   <si>
@@ -941,7 +918,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyDelivery.receiver` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyDelivery.receiver` is mapped to FHIR R4 element `SupplyDelivery.receiver`.</t>
+Element `SupplyDelivery.receiver` has is mapped to FHIR R4 element `SupplyDelivery.receiver`, but has no comparisons.</t>
   </si>
   <si>
     <t>SupplyDelivery.receiver.reference</t>
@@ -1328,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1337,9 +1314,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.23046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.76171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1347,7 +1324,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.02734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4130,7 +4107,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4148,10 +4125,10 @@
         <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4210,7 +4187,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>138</v>
@@ -4230,46 +4207,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4317,7 +4294,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4326,7 +4303,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4335,7 +4312,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4346,14 +4323,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C27" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4374,17 +4349,15 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4433,25 +4406,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4462,46 +4435,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4525,13 +4494,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4549,25 +4518,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4578,10 +4547,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4601,18 +4570,20 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4661,7 +4632,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4676,24 +4647,24 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4716,13 +4687,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4749,13 +4720,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4773,7 +4744,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4788,10 +4759,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4802,10 +4773,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4825,20 +4796,18 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4887,7 +4856,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4902,24 +4871,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4930,7 +4899,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4942,13 +4911,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4999,13 +4968,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5014,10 +4983,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5028,10 +4997,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5054,13 +5023,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5111,7 +5080,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5123,13 +5092,13 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5140,10 +5109,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5166,13 +5135,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5211,19 +5180,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5235,13 +5204,13 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5252,12 +5221,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5278,15 +5249,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5335,25 +5308,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5378,7 +5351,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5387,18 +5360,20 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5435,37 +5410,37 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5476,14 +5451,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5501,19 +5474,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5539,13 +5512,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5563,25 +5536,25 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5592,10 +5565,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5618,16 +5591,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5677,7 +5650,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5686,7 +5659,7 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
@@ -5695,7 +5668,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5706,10 +5679,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5732,16 +5705,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5767,13 +5740,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5791,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5815,234 +5788,6 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SupplyDelivery.xlsx
+++ b/StructureDefinition-profile-SupplyDelivery.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9295004-06:00</t>
+    <t>2026-02-20T11:59:20.9662153-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -657,7 +657,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.type|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.type}
 </t>
   </si>
   <si>
@@ -750,7 +750,7 @@
     <t>suppliedItem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem}
 </t>
   </si>
   <si>
@@ -907,7 +907,7 @@
     <t>receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-SupplyDelivery.xlsx
+++ b/StructureDefinition-profile-SupplyDelivery.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9662153-06:00</t>
+    <t>2026-02-21T13:36:54.3704375-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -657,7 +657,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.type}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.type|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -667,7 +667,7 @@
     <t>Indicates the type of supply being provided.  Examples include: Medication, Device, Biologically Derived Product.</t>
   </si>
   <si>
-    <t>Element `SupplyDelivery.type` has is mapped to FHIR R4 element `SupplyDelivery.type`, but has no comparisons.</t>
+    <t>Element `SupplyDelivery.type` is mapped to FHIR R4 element `SupplyDelivery.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>SupplyDelivery.type.coding</t>
@@ -744,26 +744,49 @@
     <t>SupplyDelivery.suppliedItem.extension</t>
   </si>
   <si>
-    <t>SupplyDelivery.suppliedItem.extension:suppliedItem</t>
-  </si>
-  <si>
-    <t>suppliedItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem}
+    <t>SupplyDelivery.suppliedItem.extension:item</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem.item|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SupplyDelivery.suppliedItem from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SupplyDelivery.suppliedItem` has is mapped to FHIR R4 element `SupplyDelivery.suppliedItem`, but has no comparisons.</t>
+    <t>Cross-version extension for SupplyDelivery.suppliedItem.item[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the medication, substance, device or biologically derived product being supplied. This is either a link to a resource representing the details of the item or a code that identifies the item from a known list.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `SupplyDelivery.suppliedItem.item[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `SupplyDelivery.suppliedItem`.
+Element `SupplyDelivery.suppliedItem.item[x]` is mapped to FHIR R4 element `SupplyDelivery.suppliedItem.item[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note that the target element context `SupplyDelivery.suppliedItem.item[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `SupplyDelivery.suppliedItem`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>SupplyDelivery.suppliedItem.extension:itemCanonical</t>
+  </si>
+  <si>
+    <t>itemCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/InventoryItem,http://hl7.org/fhir/StructureDefinition/NutritionProduct in FHIR R4</t>
+  </si>
+  <si>
+    <t>SupplyDelivery.suppliedItem.extension:itemReference</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/InventoryItem,http://hl7.org/fhir/StructureDefinition/NutritionProduct in FHIR R4</t>
+  </si>
+  <si>
     <t>SupplyDelivery.suppliedItem.modifierExtension</t>
   </si>
   <si>
@@ -893,112 +916,6 @@
   </si>
   <si>
     <t>.participation[typeCode=RCV].role</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.receiver.id</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.receiver.extension</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.receiver.extension:receiver</t>
-  </si>
-  <si>
-    <t>receiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SupplyDelivery.receiver from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyDelivery.receiver` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyDelivery.receiver` has is mapped to FHIR R4 element `SupplyDelivery.receiver`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.receiver.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.receiver.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.receiver.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>SupplyDelivery.receiver.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1314,9 +1231,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.76171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1324,7 +1241,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1338,7 +1255,7 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="24.12109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="46.1328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
@@ -4107,7 +4024,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4125,10 +4042,10 @@
         <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4187,7 +4104,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>138</v>
@@ -4207,46 +4124,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4294,7 +4211,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4303,7 +4220,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4312,7 +4229,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4323,12 +4240,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4349,15 +4268,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4406,25 +4327,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4435,42 +4356,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4494,13 +4419,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4518,25 +4443,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4547,10 +4472,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4570,20 +4495,18 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4632,7 +4555,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4647,24 +4570,24 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4687,13 +4610,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4720,13 +4643,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4744,7 +4667,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4759,10 +4682,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4773,10 +4696,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4796,18 +4719,20 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4856,7 +4781,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4871,24 +4796,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4899,7 +4824,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4911,13 +4836,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4968,13 +4893,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -4983,10 +4908,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4997,10 +4922,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5023,13 +4948,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5080,7 +5005,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5092,13 +5017,13 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5109,10 +5034,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5135,13 +5060,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5180,19 +5105,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5204,590 +5129,18 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN39" t="s" s="2">
         <v>77</v>
       </c>
     </row>
